--- a/biology/Médecine/Ministère_de_la_Santé_(Burkina_Faso)/Ministère_de_la_Santé_(Burkina_Faso).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Burkina_Faso)/Ministère_de_la_Santé_(Burkina_Faso).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Burkina_Faso)</t>
+          <t>Ministère_de_la_Santé_(Burkina_Faso)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Santé et de l'Hygiène Publique est un ministère du Burkina Faso qui a son siège à Ouagadougou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Burkina_Faso)</t>
+          <t>Ministère_de_la_Santé_(Burkina_Faso)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Siège
-Le ministère chargé de la santé a son siège à Ouagadougou.
-Attributions
-Le ministère est chargé de la santé au Burkina Faso.
-Ministres</t>
+          <t>Siège</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère chargé de la santé a son siège à Ouagadougou.
+</t>
         </is>
       </c>
     </row>
@@ -527,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Burkina_Faso)</t>
+          <t>Ministère_de_la_Santé_(Burkina_Faso)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +557,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liste des ministres</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Attributions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère est chargé de la santé au Burkina Faso.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Burkina_Faso)</t>
+          <t>Ministère_de_la_Santé_(Burkina_Faso)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,10 +594,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des ministres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Burkina_Faso)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Burkina_Faso)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel du Ministère de la Santé burkinabè
  Portail de la médecine   Portail de la politique   Portail du Burkina Faso                   </t>
